--- a/PastaDocsRequisistos/ListaRequisistosEstacionamento.xlsx
+++ b/PastaDocsRequisistos/ListaRequisistosEstacionamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC49DEE-D2E1-4832-83A8-451FBBFCD393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0447EAD4-A391-45C6-BED3-9CA1EF749179}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25D06698-524E-4C22-8ABC-E4BF88886386}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{25D06698-524E-4C22-8ABC-E4BF88886386}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Requisistos do sistema de gestão de estacionamento</t>
   </si>
@@ -76,16 +76,29 @@
   </si>
   <si>
     <t>.Cadastramento das vagas por tipos (tamanhos e modelos)</t>
+  </si>
+  <si>
+    <t>Feito no BrainStorm</t>
+  </si>
+  <si>
+    <t>Intregração com sistema da policia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,9 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522A2BE1-129B-494C-81B5-01D5AA19449F}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +585,18 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>